--- a/database/relatorio/PE 90004-2024/PRHODENT_COMERCIO_DE_PRODUTOS_HOSPITALARES_E_DENTARIOS_LTDA/relacao_itens.xlsx
+++ b/database/relatorio/PE 90004-2024/PRHODENT_COMERCIO_DE_PRODUTOS_HOSPITALARES_E_DENTARIOS_LTDA/relacao_itens.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C84"/>
+  <dimension ref="A1:C112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,861 +446,1337 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Descrição Detalhada: Forceps adulto n° 18r. Produzido em aço inox. Embalagem com dados de identificação do produto, marca do fabricante e registro junto a anvisa.</t>
+          <t>Forceps adulto n° 18r. Produzido em aço inox. Embalagem com dados de identificação do produto, marca do fabricante e registro junto a anvisa.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>Quantidade: 2.0</t>
+          <t>UF: Unidade</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>Valor Unitário: 71.0</t>
+          <t>Marca:  GOLGRAN</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>Valor Total: 142.0</t>
+          <t>Modelo:  GOLGRAN</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>Quantidade: 2</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>Valor Unitário: R$ 71,00</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>Valor Total: R$ 142,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>Item: 18 - GESSO - USO ODONTOLÓGICO (428416)</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>Descrição Detalhada: Gesso comum tipo ii pct c/ 1 kg cor branco</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>Quantidade: 40.0</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>Valor Unitário: 6.99</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>Valor Total: 279.6</t>
+          <t>Gesso comum tipo ii pct c/ 1 kg cor branco</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Item: 19 - GESSO - USO ODONTOLÓGICO (428415)</t>
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>UF: Embalagem 1,00 KG</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>Marca:  ASFER</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>Modelo:  ASFER</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>Descrição Detalhada: Gesso pedra tipo iii pct c/ 1 kg cor amarelo</t>
+          <t>Quantidade: 40</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>Valor Unitário: R$ 6,99</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>Valor Total: R$ 279,60</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="inlineStr">
-        <is>
-          <t>Quantidade: 50.0</t>
-        </is>
-      </c>
-      <c r="B9" s="2" t="inlineStr">
-        <is>
-          <t>Valor Unitário: 10.79</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>Valor Total: 539.5</t>
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Item: 19 - GESSO - USO ODONTOLÓGICO (428415)</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Item: 23 - ACESSÓRIO PARA RADIOLOGIA (422654)</t>
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>Gesso pedra tipo iii pct c/ 1 kg cor amarelo</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Descrição Detalhada: Grampo para rx unitário.</t>
+          <t>UF: Embalagem 1,00 KG</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>Marca:  ASFER</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>Modelo:  ASFER</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>Quantidade: 13.0</t>
+          <t>Quantidade: 50</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>Valor Unitário: 4.49</t>
+          <t>Valor Unitário: R$ 10,79</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>Valor Total: 58.370000000000005</t>
+          <t>Valor Total: R$ 539,50</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Item: 44 - MATERIAL P, ISOLAMENTO DENTAL, DIQUE DE BORRACHA (442191)</t>
+          <t>Item: 23 - ACESSÓRIO PARA RADIOLOGIA (422654)</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>Descrição Detalhada: Lençol de borracha odonto caixa com 26 unidades tamanho 13,5 x 13,5, cor azul, aroma tutti-fruti, uso único</t>
+          <t>Grampo para rx unitário.</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>Quantidade: 60.0</t>
+          <t>UF: Unidade</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>Valor Unitário: 26.49</t>
+          <t>Marca:  PREVEN</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>Valor Total: 1589.3999999999999</t>
+          <t>Modelo:  PREVEN</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Item: 46 - LIMA USO ODONTOLÓGICO (427536)</t>
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>Quantidade: 13</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>Valor Unitário: R$ 4,49</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>Valor Total: R$ 58,37</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="inlineStr">
-        <is>
-          <t>Descrição Detalhada: Lima de hirschfield nº 6-11, autoclavável, em aço inoxidável</t>
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Item: 44 - MATERIAL P, ISOLAMENTO DENTAL, DIQUE DE BORRACHA (442191)</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>Quantidade: 20.0</t>
-        </is>
-      </c>
-      <c r="B18" s="2" t="inlineStr">
-        <is>
-          <t>Valor Unitário: 59.0</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>Valor Total: 1180.0</t>
+          <t>Lençol de borracha odonto caixa com 26 unidades tamanho 13,5 x 13,5, cor azul, aroma tutti-fruti, uso único</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>Item: 47 - LIMA USO ODONTOLÓGICO (427535)</t>
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>UF: Unidade</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>Marca:  MADEITEX</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>Modelo:  MADEITEX</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>Descrição Detalhada: Lima de hirschfield nº 9-10, autoclavável, em aço inoxidável</t>
+          <t>Quantidade: 60</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>Valor Unitário: R$ 26,49</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>Valor Total: R$ 1.589,40</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="inlineStr">
-        <is>
-          <t>Quantidade: 20.0</t>
-        </is>
-      </c>
-      <c r="B21" s="2" t="inlineStr">
-        <is>
-          <t>Valor Unitário: 59.3</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>Valor Total: 1186.0</t>
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>Item: 46 - LIMA USO ODONTOLÓGICO (427536)</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Item: 49 - LAMPARINA USO ODONTOLÓGICO (441128)</t>
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>Lima de hirschfield nº 6-11, autoclavável, em aço inoxidável</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>Descrição Detalhada: Lamparina hannau plástica à álcool com tampa.</t>
+          <t>UF: Unidade</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>Marca:  GOLGRAN</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>Modelo:  GOLGRAN</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>Quantidade: 2.0</t>
+          <t>Quantidade: 20</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>Valor Unitário: 53.1</t>
+          <t>Valor Unitário: R$ 59,00</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>Valor Total: 106.2</t>
+          <t>Valor Total: R$ 1.180,00</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Item: 50 - LIMA USO ODONTOLÓGICO (427536)</t>
+          <t>Item: 47 - LIMA USO ODONTOLÓGICO (427535)</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>Descrição Detalhada: Lima do tipo hirschfeld nº 5/11, aço inoxidável, cabo oco, com diâmetro mínimo de 8mm. A lima deverá apresentar tratamento térmico integral e homogêneo que lhe garanta resistência à corrosão e conter gravação com clara identificação do fabricante (número do lote), tipo e numeração do instrumento, as junções entre a haste e cabo deverão ser soldadas impedindo penetração de água, sangue ou objetos estranhos. O instrumental deverá estar em blister lacrado.</t>
+          <t>Lima de hirschfield nº 9-10, autoclavável, em aço inoxidável</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>Quantidade: 2.0</t>
+          <t>UF: Unidade</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>Valor Unitário: 58.99</t>
+          <t>Marca:  GOLGRAN</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>Valor Total: 117.98</t>
+          <t>Modelo:  GOLGRAN</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="inlineStr">
-        <is>
-          <t>Item: 51 - LIMA USO ODONTOLÓGICO (437912)</t>
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>Quantidade: 20</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="inlineStr">
+        <is>
+          <t>Valor Unitário: R$ 59,30</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>Valor Total: R$ 1.186,00</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="inlineStr">
-        <is>
-          <t>Descrição Detalhada: Lima p/ osso seldim nº 12, com dentes retos. Produzido em aço inox. Embalagem com dados de identificação do produto, marca do fabricante e registro junto a anvisa.</t>
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>Item: 49 - LAMPARINA USO ODONTOLÓGICO (441128)</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>Quantidade: 2.0</t>
-        </is>
-      </c>
-      <c r="B30" s="2" t="inlineStr">
-        <is>
-          <t>Valor Unitário: 48.08</t>
-        </is>
-      </c>
-      <c r="C30" s="2" t="inlineStr">
-        <is>
-          <t>Valor Total: 96.16</t>
+          <t>Lamparina hannau plástica à álcool com tampa.</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="inlineStr">
-        <is>
-          <t>Item: 57 - MANDRIL ODONTOLÓGICO (438665)</t>
+      <c r="A31" s="2" t="inlineStr">
+        <is>
+          <t>UF: Unidade</t>
+        </is>
+      </c>
+      <c r="B31" s="2" t="inlineStr">
+        <is>
+          <t>Marca:  JON</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>Modelo:  JON</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>Descrição Detalhada: Mandril odontológico, material aço inoxidável, modelo de pressão, compatibilidade para contra ângulo</t>
+          <t>Quantidade: 2</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
+        <is>
+          <t>Valor Unitário: R$ 53,10</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>Valor Total: R$ 106,20</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="inlineStr">
-        <is>
-          <t>Quantidade: 15.0</t>
-        </is>
-      </c>
-      <c r="B33" s="2" t="inlineStr">
-        <is>
-          <t>Valor Unitário: 33.99</t>
-        </is>
-      </c>
-      <c r="C33" s="2" t="inlineStr">
-        <is>
-          <t>Valor Total: 509.85</t>
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>Item: 50 - LIMA USO ODONTOLÓGICO (427536)</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>Item: 58 - MANDRIL ODONTOLÓGICO (438663)</t>
+      <c r="A34" s="2" t="inlineStr">
+        <is>
+          <t>Lima do tipo hirschfeld nº 5/11, aço inoxidável, cabo oco, com diâmetro mínimo de 8mm. A lima deverá apresentar tratamento térmico integral e homogêneo que lhe garanta resistência à corrosão e conter gravação com clara identificação do fabricante (número do lote), tipo e numeração do instrumento, as junções entre a haste e cabo deverão ser soldadas impedindo penetração de água, sangue ou objetos estranhos. O instrumental deverá estar em blister lacrado.</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>Descrição Detalhada: Mandril odontológico, material aço inoxidável, com parafuso, compatibilidade para contra ângulo</t>
+          <t>UF: Unidade</t>
+        </is>
+      </c>
+      <c r="B35" s="2" t="inlineStr">
+        <is>
+          <t>Marca:  GOLGRAN</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>Modelo:  MILLENIUM</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>Quantidade: 20.0</t>
+          <t>Quantidade: 2</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>Valor Unitário: 5.0</t>
+          <t>Valor Unitário: R$ 58,99</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>Valor Total: 100.0</t>
+          <t>Valor Total: R$ 117,98</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Item: 65 - MOLDEIRA ODONTOLÓGICA (427673)</t>
+          <t>Item: 51 - LIMA USO ODONTOLÓGICO (437912)</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>Descrição Detalhada: Moldeira odontológica\, material:alumínio\, tipo:p/ moldagem\, modelo:dentados total\, adulto\, características adicionais:perfurada</t>
+          <t>Lima p/ osso seldim nº 12, com dentes retos. Produzido em aço inox. Embalagem com dados de identificação do produto, marca do fabricante e registro junto a anvisa.</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>Quantidade: 10.0</t>
+          <t>UF: Unidade</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>Valor Unitário: 10.99</t>
+          <t>Marca:  GOLGRAN</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>Valor Total: 109.9</t>
+          <t>Modelo:  GOLGRAN</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>Item: 77 - PASTA MOLDAGEM (428721)</t>
+      <c r="A40" s="2" t="inlineStr">
+        <is>
+          <t>Quantidade: 2</t>
+        </is>
+      </c>
+      <c r="B40" s="2" t="inlineStr">
+        <is>
+          <t>Valor Unitário: R$ 48,08</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>Valor Total: R$ 96,16</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="inlineStr">
-        <is>
-          <t>Descrição Detalhada: Pasta de moldagem, material básico poliéster, tipo base + catalisador, média viscosidade apresentação conjunto completo</t>
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>Item: 57 - MANDRIL ODONTOLÓGICO (438665)</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>Quantidade: 6.0</t>
-        </is>
-      </c>
-      <c r="B42" s="2" t="inlineStr">
-        <is>
-          <t>Valor Unitário: 593.0</t>
-        </is>
-      </c>
-      <c r="C42" s="2" t="inlineStr">
-        <is>
-          <t>Valor Total: 3558.0</t>
+          <t>Mandril odontológico, material aço inoxidável, modelo de pressão, compatibilidade para contra ângulo</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="inlineStr">
-        <is>
-          <t>Item: 79 - PASTA MOLDAGEM (428740)</t>
+      <c r="A43" s="2" t="inlineStr">
+        <is>
+          <t>UF: Unidade</t>
+        </is>
+      </c>
+      <c r="B43" s="2" t="inlineStr">
+        <is>
+          <t>Marca:  GH</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>Modelo:  GH</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>Descrição Detalhada: Pasta moldagem zinquenolica (ox de zinco, breu, óleo de mamona) kit c/ 01 bisnaga óxido de zinco 120g + 1bisnaga pasta de eugenol 60g.</t>
+          <t>Quantidade: 15</t>
+        </is>
+      </c>
+      <c r="B44" s="2" t="inlineStr">
+        <is>
+          <t>Valor Unitário: R$ 33,99</t>
+        </is>
+      </c>
+      <c r="C44" s="2" t="inlineStr">
+        <is>
+          <t>Valor Total: R$ 509,85</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="inlineStr">
-        <is>
-          <t>Quantidade: 4.0</t>
-        </is>
-      </c>
-      <c r="B45" s="2" t="inlineStr">
-        <is>
-          <t>Valor Unitário: 39.5</t>
-        </is>
-      </c>
-      <c r="C45" s="2" t="inlineStr">
-        <is>
-          <t>Valor Total: 158.0</t>
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>Item: 58 - MANDRIL ODONTOLÓGICO (438663)</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="inlineStr">
-        <is>
-          <t>Item: 85 - PEDRA AFIAR (456357)</t>
+      <c r="A46" s="2" t="inlineStr">
+        <is>
+          <t>Mandril odontológico, material aço inoxidável, com parafuso, compatibilidade para contra ângulo</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>Descrição Detalhada: Pedra para afiação de curetas, comprimento:10 cm, largura:2,50 cm</t>
+          <t>UF: Unidade</t>
+        </is>
+      </c>
+      <c r="B47" s="2" t="inlineStr">
+        <is>
+          <t>Marca:  GH</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>Modelo:  GH</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>Quantidade: 6.0</t>
+          <t>Quantidade: 20</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>Valor Unitário: 47.9</t>
+          <t>Valor Unitário: R$ 5,00</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>Valor Total: 287.4</t>
+          <t>Valor Total: R$ 100,00</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Item: 86 - PINÇA CIRÚRGICA (467757)</t>
+          <t>Item: 65 - MOLDEIRA ODONTOLÓGICA (427673)</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>Descrição Detalhada: Pinça allis 15cm. Produzido em aço inox. Embalagem com dados de identificação do produto, marca do fabricante e registro junto a anvisa.</t>
+          <t>Moldeira odontológica\, material:alumínio\, tipo:p/ moldagem\, modelo:dentados total\, adulto\, características adicionais:perfurada</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>Quantidade: 6.0</t>
+          <t>UF: Unidade</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>Valor Unitário: 37.0</t>
+          <t>Marca:  TECNODENT</t>
         </is>
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>Valor Total: 222.0</t>
+          <t>Modelo:  TECNODENT</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="inlineStr">
-        <is>
-          <t>Item: 93 - GOIVA USO MÉDICO (600339)</t>
+      <c r="A52" s="2" t="inlineStr">
+        <is>
+          <t>Quantidade: 10</t>
+        </is>
+      </c>
+      <c r="B52" s="2" t="inlineStr">
+        <is>
+          <t>Valor Unitário: R$ 10,99</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>Valor Total: R$ 109,90</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="2" t="inlineStr">
-        <is>
-          <t>Descrição Detalhada: Pinça goiva curva. Modelo luer 15 cm. Produzido em aço inox. Embalagem com dados de identificação do produto, marca do fabricante e registro junto a anvisa.</t>
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>Item: 77 - PASTA MOLDAGEM (428721)</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>Quantidade: 6.0</t>
-        </is>
-      </c>
-      <c r="B54" s="2" t="inlineStr">
-        <is>
-          <t>Valor Unitário: 92.0</t>
-        </is>
-      </c>
-      <c r="C54" s="2" t="inlineStr">
-        <is>
-          <t>Valor Total: 552.0</t>
+          <t>Pasta de moldagem, material básico poliéster, tipo base + catalisador, média viscosidade apresentação conjunto completo</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="inlineStr">
-        <is>
-          <t>Item: 94 - GOIVA USO MÉDICO (600341)</t>
+      <c r="A55" s="2" t="inlineStr">
+        <is>
+          <t>UF: Unidade</t>
+        </is>
+      </c>
+      <c r="B55" s="2" t="inlineStr">
+        <is>
+          <t>Marca:  3M</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="inlineStr">
+        <is>
+          <t>Modelo:  IMPREGNUM</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>Descrição Detalhada: Pinça goiva reta, modelo luer 15 cm ou 17cm. Produzida em aço inox. Embalagem com dados de identificação do produto, marca do fabricante e registro junto a anvisa.</t>
+          <t>Quantidade: 6</t>
+        </is>
+      </c>
+      <c r="B56" s="2" t="inlineStr">
+        <is>
+          <t>Valor Unitário: R$ 593,00</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>Valor Total: R$ 3.558,00</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="2" t="inlineStr">
-        <is>
-          <t>Quantidade: 6.0</t>
-        </is>
-      </c>
-      <c r="B57" s="2" t="inlineStr">
-        <is>
-          <t>Valor Unitário: 89.0</t>
-        </is>
-      </c>
-      <c r="C57" s="2" t="inlineStr">
-        <is>
-          <t>Valor Total: 534.0</t>
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>Item: 79 - PASTA MOLDAGEM (428740)</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="inlineStr">
-        <is>
-          <t>Item: 95 - PINÇA ANATÔMICA (467996)</t>
+      <c r="A58" s="2" t="inlineStr">
+        <is>
+          <t>Pasta moldagem zinquenolica (ox de zinco, breu, óleo de mamona) kit c/ 01 bisnaga óxido de zinco 120g + 1bisnaga pasta de eugenol 60g.</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>Descrição Detalhada: Pinça micro dente de rato, confeccionada em aço inoxidável aisi- 420. Com tamanho de 14 cm, tendo embalagem de plástica individual, constando os dados de identificação, procedência e rastreabilidade.</t>
+          <t>UF: Unidade</t>
+        </is>
+      </c>
+      <c r="B59" s="2" t="inlineStr">
+        <is>
+          <t>Marca:  LYSANDA</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="inlineStr">
+        <is>
+          <t>Modelo:  PASTA LYSANDA</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>Quantidade: 6.0</t>
+          <t>Quantidade: 4</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>Valor Unitário: 17.0</t>
+          <t>Valor Unitário: R$ 39,50</t>
         </is>
       </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t>Valor Total: 102.0</t>
+          <t>Valor Total: R$ 158,00</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>Item: 96 - PINÇA ODONTOLÓGICA (427616)</t>
+          <t>Item: 85 - PEDRA AFIAR (456357)</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>Descrição Detalhada: Pinça miller para carbono uso odontológico produto confeccionado em aço inoxidável aisi-420 tamanho: 15,5cm.</t>
+          <t>Pedra para afiação de curetas, comprimento:10 cm, largura:2,50 cm</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>Quantidade: 6.0</t>
+          <t>UF: Unidade</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
         <is>
-          <t>Valor Unitário: 34.4</t>
+          <t>Marca:  GOLGRAN</t>
         </is>
       </c>
       <c r="C63" s="2" t="inlineStr">
         <is>
-          <t>Valor Total: 206.39999999999998</t>
+          <t>Modelo:  GOLGRAN</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="inlineStr">
-        <is>
-          <t>Item: 118 - ACESSÓRIO PARA RADIOLOGIA (427348)</t>
+      <c r="A64" s="2" t="inlineStr">
+        <is>
+          <t>Quantidade: 6</t>
+        </is>
+      </c>
+      <c r="B64" s="2" t="inlineStr">
+        <is>
+          <t>Valor Unitário: R$ 47,90</t>
+        </is>
+      </c>
+      <c r="C64" s="2" t="inlineStr">
+        <is>
+          <t>Valor Total: R$ 287,40</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="2" t="inlineStr">
-        <is>
-          <t>Descrição Detalhada: Posicionador p/ radiografias periapicais jogo c/7 peças p/adultos.</t>
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>Item: 86 - PINÇA CIRÚRGICA (467757)</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>Quantidade: 8.0</t>
-        </is>
-      </c>
-      <c r="B66" s="2" t="inlineStr">
-        <is>
-          <t>Valor Unitário: 54.4</t>
-        </is>
-      </c>
-      <c r="C66" s="2" t="inlineStr">
-        <is>
-          <t>Valor Total: 435.2</t>
+          <t>Pinça allis 15cm. Produzido em aço inox. Embalagem com dados de identificação do produto, marca do fabricante e registro junto a anvisa.</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="inlineStr">
-        <is>
-          <t>Item: 139 - PEÇAS - EQUIPAMENTO ODONTOLÓGICO EXCLUSIVIDADE ME/EPP (411905)</t>
+      <c r="A67" s="2" t="inlineStr">
+        <is>
+          <t>UF: Unidade</t>
+        </is>
+      </c>
+      <c r="B67" s="2" t="inlineStr">
+        <is>
+          <t>Marca:  GOLGRAN</t>
+        </is>
+      </c>
+      <c r="C67" s="2" t="inlineStr">
+        <is>
+          <t>Modelo:  GOLGRAN</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>Descrição Detalhada: Saca brocas para caneta de alta rotação</t>
+          <t>Quantidade: 6</t>
+        </is>
+      </c>
+      <c r="B68" s="2" t="inlineStr">
+        <is>
+          <t>Valor Unitário: R$ 37,00</t>
+        </is>
+      </c>
+      <c r="C68" s="2" t="inlineStr">
+        <is>
+          <t>Valor Total: R$ 222,00</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="2" t="inlineStr">
-        <is>
-          <t>Quantidade: 5.0</t>
-        </is>
-      </c>
-      <c r="B69" s="2" t="inlineStr">
-        <is>
-          <t>Valor Unitário: 24.32</t>
-        </is>
-      </c>
-      <c r="C69" s="2" t="inlineStr">
-        <is>
-          <t>Valor Total: 121.6</t>
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>Item: 93 - GOIVA USO MÉDICO (600339)</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="inlineStr">
-        <is>
-          <t>Item: 140 - SACA-PRÓTESE USO ODONTOLÓGICO (427718)</t>
+      <c r="A70" s="2" t="inlineStr">
+        <is>
+          <t>Pinça goiva curva. Modelo luer 15 cm. Produzido em aço inox. Embalagem com dados de identificação do produto, marca do fabricante e registro junto a anvisa.</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>Descrição Detalhada: Saca- prótese, fabricado em aço inoxidável contendo 5 pontas diferenciadas para a extração da prótese. Embalagem com dados de identificação do produto, marca do fabricante e registro junto a anvisa.</t>
+          <t>UF: Unidade</t>
+        </is>
+      </c>
+      <c r="B71" s="2" t="inlineStr">
+        <is>
+          <t>Marca:  GOLGRAN</t>
+        </is>
+      </c>
+      <c r="C71" s="2" t="inlineStr">
+        <is>
+          <t>Modelo:  GOLGRAN</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>Quantidade: 2.0</t>
+          <t>Quantidade: 6</t>
         </is>
       </c>
       <c r="B72" s="2" t="inlineStr">
         <is>
-          <t>Valor Unitário: 119.99</t>
+          <t>Valor Unitário: R$ 92,00</t>
         </is>
       </c>
       <c r="C72" s="2" t="inlineStr">
         <is>
-          <t>Valor Total: 239.98</t>
+          <t>Valor Total: R$ 552,00</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>Item: 151 - SONDA ODONTOLÓGICA (414215)</t>
+          <t>Item: 94 - GOIVA USO MÉDICO (600341)</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>Descrição Detalhada: Sonda periodontal milimetrada do tipo williams 23 de 10 milímetros (um lado milimetrada e outro exploradora). O instrumental deverá estar em blister lacrado. Marca testada e aprovada similar ou superior a millenium ou hu-friedy.</t>
+          <t>Pinça goiva reta, modelo luer 15 cm ou 17cm. Produzida em aço inox. Embalagem com dados de identificação do produto, marca do fabricante e registro junto a anvisa.</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="inlineStr">
         <is>
-          <t>Quantidade: 20.0</t>
+          <t>UF: Unidade</t>
         </is>
       </c>
       <c r="B75" s="2" t="inlineStr">
         <is>
-          <t>Valor Unitário: 30.35</t>
+          <t>Marca:  GOLGRAN</t>
         </is>
       </c>
       <c r="C75" s="2" t="inlineStr">
         <is>
-          <t>Valor Total: 607.0</t>
+          <t>Modelo:  GOLGRAN</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="inlineStr">
-        <is>
-          <t>Item: 154 - MOBILIÁRIO RADIOLÓGICO (439855)</t>
+      <c r="A76" s="2" t="inlineStr">
+        <is>
+          <t>Quantidade: 6</t>
+        </is>
+      </c>
+      <c r="B76" s="2" t="inlineStr">
+        <is>
+          <t>Valor Unitário: R$ 89,00</t>
+        </is>
+      </c>
+      <c r="C76" s="2" t="inlineStr">
+        <is>
+          <t>Valor Total: R$ 534,00</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="2" t="inlineStr">
-        <is>
-          <t>Descrição Detalhada: Suporte para aventais de chumbo tipo, toalheiro com apoio cilíndrico em aço 1020 com pintura epóxi branco, para até 3 aventais.</t>
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>Item: 95 - PINÇA ANATÔMICA (467996)</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="inlineStr">
         <is>
-          <t>Quantidade: 2.0</t>
-        </is>
-      </c>
-      <c r="B78" s="2" t="inlineStr">
-        <is>
-          <t>Valor Unitário: 373.99</t>
-        </is>
-      </c>
-      <c r="C78" s="2" t="inlineStr">
-        <is>
-          <t>Valor Total: 747.98</t>
+          <t>Pinça micro dente de rato, confeccionada em aço inoxidável aisi- 420. Com tamanho de 14 cm, tendo embalagem de plástica individual, constando os dados de identificação, procedência e rastreabilidade.</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="1" t="inlineStr">
-        <is>
-          <t>Item: 156 - TESOURA INSTRUMENTAL (471619)</t>
+      <c r="A79" s="2" t="inlineStr">
+        <is>
+          <t>UF: Unidade</t>
+        </is>
+      </c>
+      <c r="B79" s="2" t="inlineStr">
+        <is>
+          <t>Marca:  GOLGRAN</t>
+        </is>
+      </c>
+      <c r="C79" s="2" t="inlineStr">
+        <is>
+          <t>Modelo:  GOLGRAN</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>Descrição Detalhada: Tesoura de goldman fox curva 11 cm, confeccionada com aço inoxidável aisi-420. Embalagem com dados de identificação do produto, marca do fabricante e registro junto a anvisa</t>
+          <t>Quantidade: 6</t>
+        </is>
+      </c>
+      <c r="B80" s="2" t="inlineStr">
+        <is>
+          <t>Valor Unitário: R$ 17,00</t>
+        </is>
+      </c>
+      <c r="C80" s="2" t="inlineStr">
+        <is>
+          <t>Valor Total: R$ 102,00</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="2" t="inlineStr">
-        <is>
-          <t>Quantidade: 5.0</t>
-        </is>
-      </c>
-      <c r="B81" s="2" t="inlineStr">
-        <is>
-          <t>Valor Unitário: 33.44</t>
-        </is>
-      </c>
-      <c r="C81" s="2" t="inlineStr">
-        <is>
-          <t>Valor Total: 167.2</t>
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t>Item: 96 - PINÇA ODONTOLÓGICA (427616)</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="inlineStr">
-        <is>
-          <t>Item: 163 - COALTAR (332983)</t>
+      <c r="A82" s="2" t="inlineStr">
+        <is>
+          <t>Pinça miller para carbono uso odontológico produto confeccionado em aço inoxidável aisi-420 tamanho: 15,5cm.</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="inlineStr">
         <is>
-          <t>Descrição Detalhada: Vaselina esterilizada, tubo c/ 10 gr.</t>
+          <t>UF: Unidade</t>
+        </is>
+      </c>
+      <c r="B83" s="2" t="inlineStr">
+        <is>
+          <t>Marca:  GOLGRAN</t>
+        </is>
+      </c>
+      <c r="C83" s="2" t="inlineStr">
+        <is>
+          <t>Modelo:  GOLGRAN</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="inlineStr">
         <is>
-          <t>Quantidade: 20.0</t>
+          <t>Quantidade: 6</t>
         </is>
       </c>
       <c r="B84" s="2" t="inlineStr">
         <is>
-          <t>Valor Unitário: 26.0</t>
+          <t>Valor Unitário: R$ 34,40</t>
         </is>
       </c>
       <c r="C84" s="2" t="inlineStr">
         <is>
-          <t>Valor Total: 520.0</t>
+          <t>Valor Total: R$ 206,40</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t>Item: 118 - ACESSÓRIO PARA RADIOLOGIA (427348)</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="inlineStr">
+        <is>
+          <t>Posicionador p/ radiografias periapicais jogo c/7 peças p/adultos.</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="inlineStr">
+        <is>
+          <t>UF: Unidade</t>
+        </is>
+      </c>
+      <c r="B87" s="2" t="inlineStr">
+        <is>
+          <t>Marca:  MAQUIRA</t>
+        </is>
+      </c>
+      <c r="C87" s="2" t="inlineStr">
+        <is>
+          <t>Modelo:  MAQUIRA</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="inlineStr">
+        <is>
+          <t>Quantidade: 8</t>
+        </is>
+      </c>
+      <c r="B88" s="2" t="inlineStr">
+        <is>
+          <t>Valor Unitário: R$ 54,40</t>
+        </is>
+      </c>
+      <c r="C88" s="2" t="inlineStr">
+        <is>
+          <t>Valor Total: R$ 435,20</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <t>Item: 139 - PEÇAS - EQUIPAMENTO ODONTOLÓGICO EXCLUSIVIDADE ME/EPP (411905)</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="inlineStr">
+        <is>
+          <t>Saca brocas para caneta de alta rotação</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="inlineStr">
+        <is>
+          <t>UF: Unidade</t>
+        </is>
+      </c>
+      <c r="B91" s="2" t="inlineStr">
+        <is>
+          <t>Marca:  DENTSCLER</t>
+        </is>
+      </c>
+      <c r="C91" s="2" t="inlineStr">
+        <is>
+          <t>Modelo:  DENTSCLER</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="inlineStr">
+        <is>
+          <t>Quantidade: 5</t>
+        </is>
+      </c>
+      <c r="B92" s="2" t="inlineStr">
+        <is>
+          <t>Valor Unitário: R$ 24,32</t>
+        </is>
+      </c>
+      <c r="C92" s="2" t="inlineStr">
+        <is>
+          <t>Valor Total: R$ 121,60</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="inlineStr">
+        <is>
+          <t>Item: 140 - SACA-PRÓTESE USO ODONTOLÓGICO (427718)</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="inlineStr">
+        <is>
+          <t>Saca- prótese, fabricado em aço inoxidável contendo 5 pontas diferenciadas para a extração da prótese. Embalagem com dados de identificação do produto, marca do fabricante e registro junto a anvisa.</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="inlineStr">
+        <is>
+          <t>UF: Unidade</t>
+        </is>
+      </c>
+      <c r="B95" s="2" t="inlineStr">
+        <is>
+          <t>Marca:  GOLGRAN</t>
+        </is>
+      </c>
+      <c r="C95" s="2" t="inlineStr">
+        <is>
+          <t>Modelo:  GOLGRAN</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="inlineStr">
+        <is>
+          <t>Quantidade: 2</t>
+        </is>
+      </c>
+      <c r="B96" s="2" t="inlineStr">
+        <is>
+          <t>Valor Unitário: R$ 119,99</t>
+        </is>
+      </c>
+      <c r="C96" s="2" t="inlineStr">
+        <is>
+          <t>Valor Total: R$ 239,98</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="inlineStr">
+        <is>
+          <t>Item: 151 - SONDA ODONTOLÓGICA (414215)</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="inlineStr">
+        <is>
+          <t>Sonda periodontal milimetrada do tipo williams 23 de 10 milímetros (um lado milimetrada e outro exploradora). O instrumental deverá estar em blister lacrado. Marca testada e aprovada similar ou superior a millenium ou hu-friedy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="inlineStr">
+        <is>
+          <t>UF: Unidade</t>
+        </is>
+      </c>
+      <c r="B99" s="2" t="inlineStr">
+        <is>
+          <t>Marca:  GOLGRAN</t>
+        </is>
+      </c>
+      <c r="C99" s="2" t="inlineStr">
+        <is>
+          <t>Modelo:  MILLENIUM</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="inlineStr">
+        <is>
+          <t>Quantidade: 20</t>
+        </is>
+      </c>
+      <c r="B100" s="2" t="inlineStr">
+        <is>
+          <t>Valor Unitário: R$ 30,35</t>
+        </is>
+      </c>
+      <c r="C100" s="2" t="inlineStr">
+        <is>
+          <t>Valor Total: R$ 607,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="inlineStr">
+        <is>
+          <t>Item: 154 - MOBILIÁRIO RADIOLÓGICO (439855)</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="inlineStr">
+        <is>
+          <t>Suporte para aventais de chumbo tipo, toalheiro com apoio cilíndrico em aço 1020 com pintura epóxi branco, para até 3 aventais.</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="inlineStr">
+        <is>
+          <t>UF: Unidade</t>
+        </is>
+      </c>
+      <c r="B103" s="2" t="inlineStr">
+        <is>
+          <t>Marca:  AGIR</t>
+        </is>
+      </c>
+      <c r="C103" s="2" t="inlineStr">
+        <is>
+          <t>Modelo:  AGIR</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="inlineStr">
+        <is>
+          <t>Quantidade: 2</t>
+        </is>
+      </c>
+      <c r="B104" s="2" t="inlineStr">
+        <is>
+          <t>Valor Unitário: R$ 373,99</t>
+        </is>
+      </c>
+      <c r="C104" s="2" t="inlineStr">
+        <is>
+          <t>Valor Total: R$ 747,98</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="inlineStr">
+        <is>
+          <t>Item: 156 - TESOURA INSTRUMENTAL (471619)</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="inlineStr">
+        <is>
+          <t>Tesoura de goldman fox curva 11 cm, confeccionada com aço inoxidável aisi-420. Embalagem com dados de identificação do produto, marca do fabricante e registro junto a anvisa</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="inlineStr">
+        <is>
+          <t>UF: Unidade</t>
+        </is>
+      </c>
+      <c r="B107" s="2" t="inlineStr">
+        <is>
+          <t>Marca:  GOLGRAN</t>
+        </is>
+      </c>
+      <c r="C107" s="2" t="inlineStr">
+        <is>
+          <t>Modelo:  MILLENIUM</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="inlineStr">
+        <is>
+          <t>Quantidade: 5</t>
+        </is>
+      </c>
+      <c r="B108" s="2" t="inlineStr">
+        <is>
+          <t>Valor Unitário: R$ 33,44</t>
+        </is>
+      </c>
+      <c r="C108" s="2" t="inlineStr">
+        <is>
+          <t>Valor Total: R$ 167,20</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="inlineStr">
+        <is>
+          <t>Item: 163 - COALTAR (332983)</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="inlineStr">
+        <is>
+          <t>Vaselina esterilizada, tubo c/ 10 gr.</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="inlineStr">
+        <is>
+          <t>UF: Bisnaga 10,00 G</t>
+        </is>
+      </c>
+      <c r="B111" s="2" t="inlineStr">
+        <is>
+          <t>Marca:  LYSANDA</t>
+        </is>
+      </c>
+      <c r="C111" s="2" t="inlineStr">
+        <is>
+          <t>Modelo:  LYSANDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="inlineStr">
+        <is>
+          <t>Quantidade: 20</t>
+        </is>
+      </c>
+      <c r="B112" s="2" t="inlineStr">
+        <is>
+          <t>Valor Unitário: R$ 26,00</t>
+        </is>
+      </c>
+      <c r="C112" s="2" t="inlineStr">
+        <is>
+          <t>Valor Total: R$ 520,00</t>
         </is>
       </c>
     </row>
@@ -1308,60 +1784,60 @@
   <mergeCells count="56">
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A80:C80"/>
+    <mergeCell ref="A90:C90"/>
+    <mergeCell ref="A66:C66"/>
     <mergeCell ref="A37:C37"/>
     <mergeCell ref="A46:C46"/>
+    <mergeCell ref="A89:C89"/>
     <mergeCell ref="A74:C74"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A105:C105"/>
     <mergeCell ref="A50:C50"/>
     <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A57:C57"/>
     <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A76:C76"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A86:C86"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A85:C85"/>
     <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A8:C8"/>
     <mergeCell ref="A14:C14"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A97:C97"/>
     <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A106:C106"/>
     <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A109:C109"/>
     <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A81:C81"/>
     <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A52:C52"/>
     <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A28:C28"/>
     <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A68:C68"/>
-    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A102:C102"/>
+    <mergeCell ref="A93:C93"/>
     <mergeCell ref="A58:C58"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A30:C30"/>
     <mergeCell ref="A77:C77"/>
     <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A83:C83"/>
-    <mergeCell ref="A59:C59"/>
     <mergeCell ref="A73:C73"/>
-    <mergeCell ref="A64:C64"/>
     <mergeCell ref="A82:C82"/>
-    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A98:C98"/>
     <mergeCell ref="A49:C49"/>
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A79:C79"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A94:C94"/>
+    <mergeCell ref="A110:C110"/>
     <mergeCell ref="A61:C61"/>
+    <mergeCell ref="A6:C6"/>
     <mergeCell ref="A70:C70"/>
-    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A78:C78"/>
+    <mergeCell ref="A69:C69"/>
     <mergeCell ref="A65:C65"/>
-    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A54:C54"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/database/relatorio/PE 90004-2024/PRHODENT_COMERCIO_DE_PRODUTOS_HOSPITALARES_E_DENTARIOS_LTDA/relacao_itens.xlsx
+++ b/database/relatorio/PE 90004-2024/PRHODENT_COMERCIO_DE_PRODUTOS_HOSPITALARES_E_DENTARIOS_LTDA/relacao_itens.xlsx
@@ -439,7 +439,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Item: 8 - FÓRCEPS ODONTOLÓGICO (413513)</t>
+          <t>Item 8 - FÓRCEPS ODONTOLÓGICO (413513)</t>
         </is>
       </c>
     </row>
@@ -487,7 +487,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Item: 18 - GESSO - USO ODONTOLÓGICO (428416)</t>
+          <t>Item 18 - GESSO - USO ODONTOLÓGICO (428416)</t>
         </is>
       </c>
     </row>
@@ -535,7 +535,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Item: 19 - GESSO - USO ODONTOLÓGICO (428415)</t>
+          <t>Item 19 - GESSO - USO ODONTOLÓGICO (428415)</t>
         </is>
       </c>
     </row>
@@ -583,7 +583,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Item: 23 - ACESSÓRIO PARA RADIOLOGIA (422654)</t>
+          <t>Item 23 - ACESSÓRIO PARA RADIOLOGIA (422654)</t>
         </is>
       </c>
     </row>
@@ -631,7 +631,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Item: 44 - MATERIAL P, ISOLAMENTO DENTAL, DIQUE DE BORRACHA (442191)</t>
+          <t>Item 44 - MATERIAL P, ISOLAMENTO DENTAL, DIQUE DE BORRACHA (442191)</t>
         </is>
       </c>
     </row>
@@ -679,7 +679,7 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Item: 46 - LIMA USO ODONTOLÓGICO (427536)</t>
+          <t>Item 46 - LIMA USO ODONTOLÓGICO (427536)</t>
         </is>
       </c>
     </row>
@@ -727,7 +727,7 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Item: 47 - LIMA USO ODONTOLÓGICO (427535)</t>
+          <t>Item 47 - LIMA USO ODONTOLÓGICO (427535)</t>
         </is>
       </c>
     </row>
@@ -775,7 +775,7 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Item: 49 - LAMPARINA USO ODONTOLÓGICO (441128)</t>
+          <t>Item 49 - LAMPARINA USO ODONTOLÓGICO (441128)</t>
         </is>
       </c>
     </row>
@@ -823,7 +823,7 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Item: 50 - LIMA USO ODONTOLÓGICO (427536)</t>
+          <t>Item 50 - LIMA USO ODONTOLÓGICO (427536)</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Item: 51 - LIMA USO ODONTOLÓGICO (437912)</t>
+          <t>Item 51 - LIMA USO ODONTOLÓGICO (437912)</t>
         </is>
       </c>
     </row>
@@ -919,7 +919,7 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Item: 57 - MANDRIL ODONTOLÓGICO (438665)</t>
+          <t>Item 57 - MANDRIL ODONTOLÓGICO (438665)</t>
         </is>
       </c>
     </row>
@@ -967,7 +967,7 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Item: 58 - MANDRIL ODONTOLÓGICO (438663)</t>
+          <t>Item 58 - MANDRIL ODONTOLÓGICO (438663)</t>
         </is>
       </c>
     </row>
@@ -1015,7 +1015,7 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Item: 65 - MOLDEIRA ODONTOLÓGICA (427673)</t>
+          <t>Item 65 - MOLDEIRA ODONTOLÓGICA (427673)</t>
         </is>
       </c>
     </row>
@@ -1063,7 +1063,7 @@
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>Item: 77 - PASTA MOLDAGEM (428721)</t>
+          <t>Item 77 - PASTA MOLDAGEM (428721)</t>
         </is>
       </c>
     </row>
@@ -1111,7 +1111,7 @@
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>Item: 79 - PASTA MOLDAGEM (428740)</t>
+          <t>Item 79 - PASTA MOLDAGEM (428740)</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>Item: 85 - PEDRA AFIAR (456357)</t>
+          <t>Item 85 - PEDRA AFIAR (456357)</t>
         </is>
       </c>
     </row>
@@ -1207,7 +1207,7 @@
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>Item: 86 - PINÇA CIRÚRGICA (467757)</t>
+          <t>Item 86 - PINÇA CIRÚRGICA (467757)</t>
         </is>
       </c>
     </row>
@@ -1255,7 +1255,7 @@
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>Item: 93 - GOIVA USO MÉDICO (600339)</t>
+          <t>Item 93 - GOIVA USO MÉDICO (600339)</t>
         </is>
       </c>
     </row>
@@ -1303,7 +1303,7 @@
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>Item: 94 - GOIVA USO MÉDICO (600341)</t>
+          <t>Item 94 - GOIVA USO MÉDICO (600341)</t>
         </is>
       </c>
     </row>
@@ -1351,7 +1351,7 @@
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>Item: 95 - PINÇA ANATÔMICA (467996)</t>
+          <t>Item 95 - PINÇA ANATÔMICA (467996)</t>
         </is>
       </c>
     </row>
@@ -1399,7 +1399,7 @@
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>Item: 96 - PINÇA ODONTOLÓGICA (427616)</t>
+          <t>Item 96 - PINÇA ODONTOLÓGICA (427616)</t>
         </is>
       </c>
     </row>
@@ -1447,7 +1447,7 @@
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>Item: 118 - ACESSÓRIO PARA RADIOLOGIA (427348)</t>
+          <t>Item 118 - ACESSÓRIO PARA RADIOLOGIA (427348)</t>
         </is>
       </c>
     </row>
@@ -1495,7 +1495,7 @@
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>Item: 139 - PEÇAS - EQUIPAMENTO ODONTOLÓGICO EXCLUSIVIDADE ME/EPP (411905)</t>
+          <t>Item 139 - PEÇAS - EQUIPAMENTO ODONTOLÓGICO EXCLUSIVIDADE ME/EPP (411905)</t>
         </is>
       </c>
     </row>
@@ -1543,7 +1543,7 @@
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>Item: 140 - SACA-PRÓTESE USO ODONTOLÓGICO (427718)</t>
+          <t>Item 140 - SACA-PRÓTESE USO ODONTOLÓGICO (427718)</t>
         </is>
       </c>
     </row>
@@ -1591,7 +1591,7 @@
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>Item: 151 - SONDA ODONTOLÓGICA (414215)</t>
+          <t>Item 151 - SONDA ODONTOLÓGICA (414215)</t>
         </is>
       </c>
     </row>
@@ -1639,7 +1639,7 @@
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>Item: 154 - MOBILIÁRIO RADIOLÓGICO (439855)</t>
+          <t>Item 154 - MOBILIÁRIO RADIOLÓGICO (439855)</t>
         </is>
       </c>
     </row>
@@ -1687,7 +1687,7 @@
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>Item: 156 - TESOURA INSTRUMENTAL (471619)</t>
+          <t>Item 156 - TESOURA INSTRUMENTAL (471619)</t>
         </is>
       </c>
     </row>
@@ -1735,7 +1735,7 @@
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>Item: 163 - COALTAR (332983)</t>
+          <t>Item 163 - COALTAR (332983)</t>
         </is>
       </c>
     </row>
